--- a/Data/Phenotypic data_Joy.xlsx
+++ b/Data/Phenotypic data_Joy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Farm_qualitative" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -903,7 +903,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -6059,8 +6059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="C34" sqref="A34:XFD34"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15771,12 +15771,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q154" sqref="Q154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45">
       <c r="A1" s="1" t="s">
@@ -19460,9 +19463,7 @@
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="11" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J63" s="11"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4">
         <v>7</v>
@@ -24277,8 +24278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/Data/Phenotypic data_Joy.xlsx
+++ b/Data/Phenotypic data_Joy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Farm_qualitative" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="233">
   <si>
     <t>S/N</t>
   </si>
@@ -695,12 +695,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>73,68</t>
-  </si>
-  <si>
-    <t>92,87</t>
-  </si>
-  <si>
     <t>56,51</t>
   </si>
   <si>
@@ -875,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -952,6 +946,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="13" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3315,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="T59" sqref="T59"/>
+    <sheetView topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6059,8 +6054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8306,8 +8301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8320,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -15771,9 +15766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q154" sqref="Q154"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15789,7 +15784,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -15819,22 +15814,22 @@
         <v>66</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>70</v>
@@ -18960,7 +18955,7 @@
       <c r="Q54" s="4">
         <v>1</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R54" s="32">
         <v>14</v>
       </c>
       <c r="S54" s="4">
@@ -19461,10 +19456,18 @@
       <c r="G63" s="4">
         <v>6.5</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="4"/>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
       <c r="L63" s="4">
         <v>7</v>
       </c>
@@ -20627,11 +20630,11 @@
       <c r="E83" s="10">
         <v>50</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>224</v>
+      <c r="F83" s="4">
+        <v>73</v>
+      </c>
+      <c r="G83" s="4">
+        <v>92</v>
       </c>
       <c r="H83" s="4">
         <v>36.700000000000003</v>
@@ -20922,11 +20925,11 @@
       <c r="E88" s="10">
         <v>34</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>226</v>
+      <c r="F88" s="4">
+        <v>56</v>
+      </c>
+      <c r="G88" s="4">
+        <v>71</v>
       </c>
       <c r="H88" s="4">
         <v>31</v>
@@ -24278,8 +24281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -24292,7 +24295,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -24322,22 +24325,22 @@
         <v>66</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>70</v>
@@ -24346,7 +24349,7 @@
         <v>71</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -24540,7 +24543,9 @@
       <c r="T4" s="12">
         <v>28.8</v>
       </c>
-      <c r="U4" s="4"/>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="3">
@@ -24993,7 +24998,9 @@
       <c r="T11" s="12">
         <v>15.16</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3">
@@ -25056,7 +25063,9 @@
       <c r="T12" s="12">
         <v>23.6</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="3">
@@ -25379,7 +25388,9 @@
       <c r="T17" s="12">
         <v>23</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="3">
@@ -25507,7 +25518,9 @@
       <c r="T19" s="12">
         <v>29.58</v>
       </c>
-      <c r="U19" s="4"/>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="3">
@@ -25700,7 +25713,9 @@
       <c r="T22" s="12">
         <v>30.64</v>
       </c>
-      <c r="U22" s="4"/>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="3">
@@ -25763,7 +25778,9 @@
       <c r="T23" s="12">
         <v>16.53</v>
       </c>
-      <c r="U23" s="4"/>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="3">
@@ -26021,7 +26038,9 @@
       <c r="T27" s="12">
         <v>35.43</v>
       </c>
-      <c r="U27" s="4"/>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="6">
@@ -26084,6 +26103,9 @@
       <c r="T28">
         <v>32.200000000000003</v>
       </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="6">
@@ -26145,6 +26167,9 @@
       </c>
       <c r="T29" s="13">
         <v>27.12</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -26208,7 +26233,9 @@
       <c r="T30" s="12">
         <v>32.26</v>
       </c>
-      <c r="U30" s="4"/>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="3">
@@ -26466,7 +26493,9 @@
       <c r="T34" s="12">
         <v>27.6</v>
       </c>
-      <c r="U34" s="4"/>
+      <c r="U34" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="3">
@@ -26789,7 +26818,9 @@
       <c r="T39" s="12">
         <v>29.5</v>
       </c>
-      <c r="U39" s="4"/>
+      <c r="U39" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="3">
@@ -26982,7 +27013,9 @@
       <c r="T42" s="12">
         <v>24.34</v>
       </c>
-      <c r="U42" s="4"/>
+      <c r="U42" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="3">
@@ -27240,7 +27273,9 @@
       <c r="T46" s="12">
         <v>36.479999999999997</v>
       </c>
-      <c r="U46" s="4"/>
+      <c r="U46" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="3">
@@ -27649,10 +27684,10 @@
         <v>34</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H53" s="4">
         <v>31</v>
@@ -28083,7 +28118,9 @@
       <c r="T59" s="12">
         <v>24.12</v>
       </c>
-      <c r="U59" s="4"/>
+      <c r="U59" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="3">
@@ -28341,7 +28378,9 @@
       <c r="T63" s="10">
         <v>28.12</v>
       </c>
-      <c r="U63" s="4"/>
+      <c r="U63" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="3">
@@ -28664,6 +28703,9 @@
       <c r="T68" s="7">
         <v>34.020000000000003</v>
       </c>
+      <c r="U68" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="6">
@@ -28726,6 +28768,9 @@
       <c r="T69" s="7">
         <v>27.12</v>
       </c>
+      <c r="U69" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="3">
@@ -28853,7 +28898,9 @@
       <c r="T71" s="12">
         <v>20.68</v>
       </c>
-      <c r="U71" s="4"/>
+      <c r="U71" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="3">
@@ -29176,7 +29223,9 @@
       <c r="T76" s="12">
         <v>30.4</v>
       </c>
-      <c r="U76" s="4"/>
+      <c r="U76" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3">
@@ -29434,7 +29483,9 @@
       <c r="T80" s="12">
         <v>21.7</v>
       </c>
-      <c r="U80" s="4"/>
+      <c r="U80" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="3">
@@ -29692,7 +29743,9 @@
       <c r="T84" s="12">
         <v>26.08</v>
       </c>
-      <c r="U84" s="4"/>
+      <c r="U84" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="3">
@@ -30210,7 +30263,9 @@
       <c r="T92" s="12">
         <v>25.7</v>
       </c>
-      <c r="U92" s="4"/>
+      <c r="U92" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="6">
@@ -30273,6 +30328,9 @@
       <c r="T93">
         <v>35.83</v>
       </c>
+      <c r="U93" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="6">
@@ -30334,6 +30392,9 @@
       </c>
       <c r="T94" s="7">
         <v>27.12</v>
+      </c>
+      <c r="U94" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
